--- a/Modelo Logistica/Modelo Logística vDraft.xlsx
+++ b/Modelo Logistica/Modelo Logística vDraft.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr hidePivotFieldList="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xavierign/Documents/oil/Modelo Logistica/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="885" windowWidth="20730" windowHeight="11340"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20740" windowHeight="11340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Frecuencia" sheetId="4" r:id="rId1"/>
@@ -90,8 +95,11 @@
     <definedName name="TESTVKEY">#REF!</definedName>
     <definedName name="VESOP">'[4]0.3 DATOS'!$D$69</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -100,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="260">
   <si>
     <t>Actividad</t>
   </si>
@@ -868,9 +876,6 @@
   </si>
   <si>
     <t>Llenado Inicial Fase Ibis</t>
-  </si>
-  <si>
-    <t>+ 1 Turno</t>
   </si>
   <si>
     <t>Rango Hora Inicio</t>
@@ -890,31 +895,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="25">
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="#.##0,"/>
-    <numFmt numFmtId="170" formatCode="\$#,"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="#,000,000"/>
-    <numFmt numFmtId="173" formatCode="#,#00"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="0.000"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;\ #,##0.00;[Red]&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="181" formatCode="0.0"/>
-    <numFmt numFmtId="182" formatCode="[$USD]\ #,##0.00_);\([$USD]\ #,##0.00\)"/>
-    <numFmt numFmtId="183" formatCode="_([$USD]\ * #,##0.00_);_([$USD]\ * \(#,##0.00\);_([$USD]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="184" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_(&quot;$ &quot;* #,##0.00_);_(&quot;$ &quot;* \(#,##0.00\);_(&quot;$ &quot;* \-??_);_(@_)"/>
-    <numFmt numFmtId="186" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="#.##0,"/>
+    <numFmt numFmtId="168" formatCode="\$#,"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="#,000,000"/>
+    <numFmt numFmtId="171" formatCode="#,#00"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="174" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;\ #,##0.00;[Red]&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="180" formatCode="[$USD]\ #,##0.00_);\([$USD]\ #,##0.00\)"/>
+    <numFmt numFmtId="181" formatCode="_([$USD]\ * #,##0.00_);_([$USD]\ * \(#,##0.00\);_([$USD]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="_(&quot;$ &quot;* #,##0.00_);_(&quot;$ &quot;* \(#,##0.00\);_(&quot;$ &quot;* \-??_);_(@_)"/>
+    <numFmt numFmtId="184" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -1506,46 +1511,46 @@
     <xf numFmtId="0" fontId="7" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1560,67 +1565,67 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="175" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="8" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="8" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="181" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="181" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1649,7 +1654,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="186" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="184" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -1658,7 +1663,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1674,10 +1679,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1697,10 +1702,10 @@
     <xf numFmtId="0" fontId="25" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="172" fontId="10" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="172" fontId="10" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
@@ -1758,7 +1763,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1863,6 +1868,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="296">
     <cellStyle name="20% - Accent1" xfId="2"/>
@@ -1962,20 +1970,20 @@
     <cellStyle name="F7" xfId="96"/>
     <cellStyle name="F8" xfId="97"/>
     <cellStyle name="Fixed" xfId="98"/>
+    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="99"/>
     <cellStyle name="Heading 1" xfId="100"/>
     <cellStyle name="Heading 2" xfId="101"/>
     <cellStyle name="Heading 3" xfId="102"/>
     <cellStyle name="Heading 4" xfId="103"/>
-    <cellStyle name="Hipervínculo" xfId="288" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="290" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="292" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="294" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo 2" xfId="104"/>
-    <cellStyle name="Hipervínculo visitado" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="105"/>
     <cellStyle name="Input 2" xfId="106"/>
     <cellStyle name="Input 3" xfId="107"/>
@@ -5361,16 +5369,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -5533,36 +5541,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R121"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
     <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10" style="21" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="21" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="21" customWidth="1"/>
     <col min="11" max="11" width="10" style="21" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="21" customWidth="1"/>
-    <col min="13" max="13" width="40.28515625" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" style="21" customWidth="1"/>
+    <col min="13" max="13" width="40.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" customWidth="1"/>
     <col min="19" max="19" width="4" customWidth="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" customWidth="1"/>
+    <col min="21" max="21" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>128</v>
       </c>
@@ -5579,14 +5587,14 @@
         <v>1</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G1" s="37"/>
       <c r="H1" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>8</v>
@@ -5616,7 +5624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>46</v>
       </c>
@@ -5639,7 +5647,9 @@
         <v>20</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3">
+        <v>9999</v>
+      </c>
       <c r="J2" s="3">
         <v>24</v>
       </c>
@@ -5668,7 +5678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>46</v>
       </c>
@@ -5691,7 +5701,9 @@
         <v>24</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3">
+        <v>9999</v>
+      </c>
       <c r="J3" s="3">
         <v>24</v>
       </c>
@@ -5720,7 +5732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>46</v>
       </c>
@@ -5743,7 +5755,9 @@
         <v>24</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>9999</v>
+      </c>
       <c r="J4" s="3">
         <v>24</v>
       </c>
@@ -5772,7 +5786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>46</v>
       </c>
@@ -5795,7 +5809,9 @@
         <v>24</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>9999</v>
+      </c>
       <c r="J5" s="3">
         <v>24</v>
       </c>
@@ -5824,7 +5840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>46</v>
       </c>
@@ -5847,7 +5863,9 @@
         <v>24</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3">
+        <v>9999</v>
+      </c>
       <c r="J6" s="3">
         <v>24</v>
       </c>
@@ -5876,7 +5894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>46</v>
       </c>
@@ -5899,7 +5917,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I7" s="3">
         <v>4</v>
@@ -5932,7 +5950,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>46</v>
       </c>
@@ -5954,8 +5972,9 @@
       <c r="G8" s="3">
         <v>24</v>
       </c>
-      <c r="I8" s="32" t="s">
-        <v>256</v>
+      <c r="H8" s="38"/>
+      <c r="I8" s="32">
+        <v>36</v>
       </c>
       <c r="J8" s="3">
         <v>24</v>
@@ -5985,7 +6004,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>46</v>
       </c>
@@ -6008,8 +6027,8 @@
         <v>24</v>
       </c>
       <c r="H9" s="32"/>
-      <c r="I9" s="32" t="s">
-        <v>256</v>
+      <c r="I9" s="32">
+        <v>36</v>
       </c>
       <c r="J9" s="3">
         <v>24</v>
@@ -6039,7 +6058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>46</v>
       </c>
@@ -6062,7 +6081,9 @@
         <v>24</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3">
+        <v>9999</v>
+      </c>
       <c r="J10" s="3">
         <v>24</v>
       </c>
@@ -6091,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>46</v>
       </c>
@@ -6114,7 +6135,9 @@
         <v>24</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3">
+        <v>9999</v>
+      </c>
       <c r="J11" s="3">
         <v>24</v>
       </c>
@@ -6143,7 +6166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -6166,7 +6189,9 @@
         <v>24</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>9999</v>
+      </c>
       <c r="J12" s="3">
         <v>24</v>
       </c>
@@ -6195,7 +6220,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>129</v>
       </c>
@@ -6218,7 +6243,9 @@
         <v>24</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>9999</v>
+      </c>
       <c r="J13" s="3">
         <v>24</v>
       </c>
@@ -6247,7 +6274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>129</v>
       </c>
@@ -6270,7 +6297,9 @@
         <v>24</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3">
+        <v>9999</v>
+      </c>
       <c r="J14" s="3">
         <v>24</v>
       </c>
@@ -6299,7 +6328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>129</v>
       </c>
@@ -6322,7 +6351,9 @@
         <v>24</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3">
+        <v>9999</v>
+      </c>
       <c r="J15" s="3">
         <v>24</v>
       </c>
@@ -6351,7 +6382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>129</v>
       </c>
@@ -6374,7 +6405,9 @@
         <v>24</v>
       </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3">
+        <v>9999</v>
+      </c>
       <c r="J16" s="3">
         <v>24</v>
       </c>
@@ -6403,7 +6436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>129</v>
       </c>
@@ -6426,7 +6459,7 @@
         <v>24</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I17" s="3">
         <v>4</v>
@@ -6459,7 +6492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>129</v>
       </c>
@@ -6482,7 +6515,7 @@
         <v>24</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I18" s="3">
         <v>4</v>
@@ -6515,7 +6548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>129</v>
       </c>
@@ -6538,7 +6571,7 @@
         <v>24</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I19" s="3">
         <v>4</v>
@@ -6571,7 +6604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>129</v>
       </c>
@@ -6594,7 +6627,7 @@
         <v>24</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I20" s="3">
         <v>4</v>
@@ -6627,7 +6660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>129</v>
       </c>
@@ -6650,7 +6683,9 @@
         <v>24</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3">
+        <v>9999</v>
+      </c>
       <c r="J21" s="3">
         <v>24</v>
       </c>
@@ -6679,7 +6714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>129</v>
       </c>
@@ -6702,7 +6737,9 @@
         <v>24</v>
       </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="I22" s="3">
+        <v>9999</v>
+      </c>
       <c r="J22" s="3">
         <v>24</v>
       </c>
@@ -6731,7 +6768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>129</v>
       </c>
@@ -6754,7 +6791,9 @@
         <v>8</v>
       </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3">
+        <v>9999</v>
+      </c>
       <c r="J23" s="3">
         <v>24</v>
       </c>
@@ -6783,7 +6822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>129</v>
       </c>
@@ -6806,7 +6845,7 @@
         <v>24</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I24" s="3">
         <v>4</v>
@@ -6839,7 +6878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>129</v>
       </c>
@@ -6862,7 +6901,9 @@
         <v>24</v>
       </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="3">
+        <v>9999</v>
+      </c>
       <c r="J25" s="3">
         <v>24</v>
       </c>
@@ -6891,7 +6932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>129</v>
       </c>
@@ -6914,7 +6955,9 @@
         <v>24</v>
       </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3">
+        <v>9999</v>
+      </c>
       <c r="J26" s="3">
         <v>24</v>
       </c>
@@ -6943,7 +6986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>129</v>
       </c>
@@ -6966,7 +7009,9 @@
         <v>24</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="3">
+        <v>9999</v>
+      </c>
       <c r="J27" s="3">
         <v>24</v>
       </c>
@@ -6995,7 +7040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>129</v>
       </c>
@@ -7018,7 +7063,9 @@
         <v>24</v>
       </c>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3">
+        <v>9999</v>
+      </c>
       <c r="J28" s="3">
         <v>24</v>
       </c>
@@ -7047,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>129</v>
       </c>
@@ -7070,7 +7117,9 @@
         <v>24</v>
       </c>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3">
+        <v>9999</v>
+      </c>
       <c r="J29" s="3">
         <v>24</v>
       </c>
@@ -7099,7 +7148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>129</v>
       </c>
@@ -7122,7 +7171,9 @@
         <v>24</v>
       </c>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3">
+        <v>9999</v>
+      </c>
       <c r="J30" s="3">
         <v>24</v>
       </c>
@@ -7151,7 +7202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>129</v>
       </c>
@@ -7174,7 +7225,7 @@
         <v>24</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I31" s="3">
         <v>12</v>
@@ -7207,7 +7258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>129</v>
       </c>
@@ -7230,7 +7281,7 @@
         <v>24</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I32" s="3">
         <v>12</v>
@@ -7263,7 +7314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>129</v>
       </c>
@@ -7286,7 +7337,9 @@
         <v>24</v>
       </c>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="I33" s="3">
+        <v>9999</v>
+      </c>
       <c r="J33" s="3">
         <v>24</v>
       </c>
@@ -7315,7 +7368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>129</v>
       </c>
@@ -7338,7 +7391,9 @@
         <v>24</v>
       </c>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="3">
+        <v>9999</v>
+      </c>
       <c r="J34" s="3">
         <v>24</v>
       </c>
@@ -7367,7 +7422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>129</v>
       </c>
@@ -7390,7 +7445,9 @@
         <v>8</v>
       </c>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="3">
+        <v>9999</v>
+      </c>
       <c r="J35" s="3">
         <v>24</v>
       </c>
@@ -7419,7 +7476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>129</v>
       </c>
@@ -7442,7 +7499,7 @@
         <v>24</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I36" s="3">
         <v>4</v>
@@ -7475,7 +7532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>129</v>
       </c>
@@ -7498,7 +7555,9 @@
         <v>24</v>
       </c>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="I37" s="3">
+        <v>9999</v>
+      </c>
       <c r="J37" s="3">
         <v>24</v>
       </c>
@@ -7527,7 +7586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>129</v>
       </c>
@@ -7550,7 +7609,9 @@
         <v>24</v>
       </c>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="I38" s="3">
+        <v>9999</v>
+      </c>
       <c r="J38" s="3">
         <v>24</v>
       </c>
@@ -7579,7 +7640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>129</v>
       </c>
@@ -7602,7 +7663,9 @@
         <v>24</v>
       </c>
       <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="I39" s="3">
+        <v>9999</v>
+      </c>
       <c r="J39" s="3">
         <v>24</v>
       </c>
@@ -7631,7 +7694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>129</v>
       </c>
@@ -7654,7 +7717,9 @@
         <v>24</v>
       </c>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="I40" s="3">
+        <v>9999</v>
+      </c>
       <c r="J40" s="3">
         <v>24</v>
       </c>
@@ -7683,7 +7748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>129</v>
       </c>
@@ -7706,7 +7771,9 @@
         <v>24</v>
       </c>
       <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="I41" s="3">
+        <v>9999</v>
+      </c>
       <c r="J41" s="3">
         <v>24</v>
       </c>
@@ -7735,7 +7802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>129</v>
       </c>
@@ -7758,7 +7825,9 @@
         <v>24</v>
       </c>
       <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="I42" s="3">
+        <v>9999</v>
+      </c>
       <c r="J42" s="3">
         <v>24</v>
       </c>
@@ -7787,7 +7856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>129</v>
       </c>
@@ -7810,7 +7879,9 @@
         <v>24</v>
       </c>
       <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="I43" s="3">
+        <v>9999</v>
+      </c>
       <c r="J43" s="3">
         <v>24</v>
       </c>
@@ -7839,7 +7910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>129</v>
       </c>
@@ -7862,7 +7933,7 @@
         <v>24</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I44" s="3">
         <v>4</v>
@@ -7895,7 +7966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>129</v>
       </c>
@@ -7918,7 +7989,7 @@
         <v>24</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I45" s="3">
         <v>4</v>
@@ -7951,7 +8022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>129</v>
       </c>
@@ -7974,7 +8045,7 @@
         <v>24</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I46" s="3">
         <v>4</v>
@@ -8007,7 +8078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>129</v>
       </c>
@@ -8030,7 +8101,9 @@
         <v>24</v>
       </c>
       <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="I47" s="3">
+        <v>9999</v>
+      </c>
       <c r="J47" s="3">
         <v>24</v>
       </c>
@@ -8059,7 +8132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>129</v>
       </c>
@@ -8082,7 +8155,9 @@
         <v>24</v>
       </c>
       <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
+      <c r="I48" s="13">
+        <v>9999</v>
+      </c>
       <c r="J48" s="13">
         <v>24</v>
       </c>
@@ -8111,7 +8186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>129</v>
       </c>
@@ -8134,7 +8209,9 @@
         <v>8</v>
       </c>
       <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
+      <c r="I49" s="13">
+        <v>9999</v>
+      </c>
       <c r="J49" s="13">
         <v>24</v>
       </c>
@@ -8163,7 +8240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>129</v>
       </c>
@@ -8186,7 +8263,7 @@
         <v>24</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I50" s="13">
         <v>4</v>
@@ -8219,7 +8296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>129</v>
       </c>
@@ -8242,7 +8319,9 @@
         <v>24</v>
       </c>
       <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
+      <c r="I51" s="13">
+        <v>9999</v>
+      </c>
       <c r="J51" s="13">
         <v>24</v>
       </c>
@@ -8271,7 +8350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>129</v>
       </c>
@@ -8294,7 +8373,9 @@
         <v>24</v>
       </c>
       <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+      <c r="I52" s="3">
+        <v>9999</v>
+      </c>
       <c r="J52" s="3">
         <v>24</v>
       </c>
@@ -8323,7 +8404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>129</v>
       </c>
@@ -8346,7 +8427,9 @@
         <v>24</v>
       </c>
       <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="I53" s="3">
+        <v>9999</v>
+      </c>
       <c r="J53" s="3">
         <v>24</v>
       </c>
@@ -8375,7 +8458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>129</v>
       </c>
@@ -8398,7 +8481,9 @@
         <v>24</v>
       </c>
       <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
+      <c r="I54" s="3">
+        <v>9999</v>
+      </c>
       <c r="J54" s="3">
         <v>24</v>
       </c>
@@ -8427,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>129</v>
       </c>
@@ -8450,7 +8535,9 @@
         <v>24</v>
       </c>
       <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="I55" s="3">
+        <v>9999</v>
+      </c>
       <c r="J55" s="3">
         <v>24</v>
       </c>
@@ -8479,7 +8566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>129</v>
       </c>
@@ -8502,7 +8589,9 @@
         <v>24</v>
       </c>
       <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+      <c r="I56" s="3">
+        <v>9999</v>
+      </c>
       <c r="J56" s="3">
         <v>24</v>
       </c>
@@ -8531,7 +8620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>129</v>
       </c>
@@ -8554,7 +8643,7 @@
         <v>24</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I57" s="3">
         <v>6</v>
@@ -8587,7 +8676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>129</v>
       </c>
@@ -8610,7 +8699,9 @@
         <v>24</v>
       </c>
       <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
+      <c r="I58" s="3">
+        <v>9999</v>
+      </c>
       <c r="J58" s="3">
         <v>24</v>
       </c>
@@ -8639,7 +8730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>129</v>
       </c>
@@ -8662,7 +8753,9 @@
         <v>24</v>
       </c>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="I59" s="3">
+        <v>9999</v>
+      </c>
       <c r="J59" s="3">
         <v>24</v>
       </c>
@@ -8691,7 +8784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>129</v>
       </c>
@@ -8714,7 +8807,9 @@
         <v>8</v>
       </c>
       <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="I60" s="3">
+        <v>9999</v>
+      </c>
       <c r="J60" s="3">
         <v>24</v>
       </c>
@@ -8743,7 +8838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>129</v>
       </c>
@@ -8766,7 +8861,7 @@
         <v>24</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I61" s="3">
         <v>4</v>
@@ -8799,7 +8894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>129</v>
       </c>
@@ -8822,7 +8917,9 @@
         <v>24</v>
       </c>
       <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
+      <c r="I62" s="3">
+        <v>9999</v>
+      </c>
       <c r="J62" s="3">
         <v>24</v>
       </c>
@@ -8851,7 +8948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>129</v>
       </c>
@@ -8874,7 +8971,9 @@
         <v>24</v>
       </c>
       <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+      <c r="I63" s="3">
+        <v>9999</v>
+      </c>
       <c r="J63" s="3">
         <v>24</v>
       </c>
@@ -8903,7 +9002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>129</v>
       </c>
@@ -8926,7 +9025,9 @@
         <v>24</v>
       </c>
       <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
+      <c r="I64" s="3">
+        <v>9999</v>
+      </c>
       <c r="J64" s="3">
         <v>24</v>
       </c>
@@ -8955,7 +9056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>129</v>
       </c>
@@ -8978,7 +9079,9 @@
         <v>24</v>
       </c>
       <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
+      <c r="I65" s="3">
+        <v>9999</v>
+      </c>
       <c r="J65" s="3">
         <v>24</v>
       </c>
@@ -9007,7 +9110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>129</v>
       </c>
@@ -9030,7 +9133,9 @@
         <v>24</v>
       </c>
       <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
+      <c r="I66" s="3">
+        <v>9999</v>
+      </c>
       <c r="J66" s="3">
         <v>24</v>
       </c>
@@ -9059,7 +9164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>129</v>
       </c>
@@ -9082,7 +9187,9 @@
         <v>24</v>
       </c>
       <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
+      <c r="I67" s="3">
+        <v>9999</v>
+      </c>
       <c r="J67" s="3">
         <v>24</v>
       </c>
@@ -9111,7 +9218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>129</v>
       </c>
@@ -9134,7 +9241,9 @@
         <v>24</v>
       </c>
       <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
+      <c r="I68" s="3">
+        <v>9999</v>
+      </c>
       <c r="J68" s="3">
         <v>24</v>
       </c>
@@ -9163,7 +9272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>129</v>
       </c>
@@ -9186,7 +9295,7 @@
         <v>24</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I69" s="3">
         <v>4</v>
@@ -9219,7 +9328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>129</v>
       </c>
@@ -9242,7 +9351,7 @@
         <v>24</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I70" s="3">
         <v>4</v>
@@ -9275,7 +9384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>129</v>
       </c>
@@ -9298,7 +9407,7 @@
         <v>24</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I71" s="3">
         <v>6</v>
@@ -9331,7 +9440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>129</v>
       </c>
@@ -9354,7 +9463,7 @@
         <v>24</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I72" s="3">
         <v>6</v>
@@ -9387,7 +9496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>129</v>
       </c>
@@ -9410,7 +9519,9 @@
         <v>24</v>
       </c>
       <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
+      <c r="I73" s="3">
+        <v>9999</v>
+      </c>
       <c r="J73" s="3">
         <v>24</v>
       </c>
@@ -9439,7 +9550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>129</v>
       </c>
@@ -9462,7 +9573,9 @@
         <v>24</v>
       </c>
       <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
+      <c r="I74" s="3">
+        <v>9999</v>
+      </c>
       <c r="J74" s="3">
         <v>24</v>
       </c>
@@ -9491,7 +9604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>129</v>
       </c>
@@ -9514,7 +9627,9 @@
         <v>8</v>
       </c>
       <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
+      <c r="I75" s="3">
+        <v>9999</v>
+      </c>
       <c r="J75" s="3">
         <v>24</v>
       </c>
@@ -9543,7 +9658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>129</v>
       </c>
@@ -9566,7 +9681,7 @@
         <v>24</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I76" s="3">
         <v>4</v>
@@ -9599,7 +9714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>129</v>
       </c>
@@ -9622,7 +9737,9 @@
         <v>24</v>
       </c>
       <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
+      <c r="I77" s="3">
+        <v>9</v>
+      </c>
       <c r="J77" s="3">
         <v>24</v>
       </c>
@@ -9651,7 +9768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>129</v>
       </c>
@@ -9674,7 +9791,9 @@
         <v>24</v>
       </c>
       <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
+      <c r="I78" s="3">
+        <v>9999</v>
+      </c>
       <c r="J78" s="3">
         <v>24</v>
       </c>
@@ -9703,7 +9822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>129</v>
       </c>
@@ -9726,7 +9845,9 @@
         <v>24</v>
       </c>
       <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
+      <c r="I79" s="3">
+        <v>9999</v>
+      </c>
       <c r="J79" s="3">
         <v>24</v>
       </c>
@@ -9755,7 +9876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>129</v>
       </c>
@@ -9778,7 +9899,9 @@
         <v>24</v>
       </c>
       <c r="H80" s="24"/>
-      <c r="I80" s="3"/>
+      <c r="I80" s="3">
+        <v>9999</v>
+      </c>
       <c r="J80" s="3">
         <v>24</v>
       </c>
@@ -9807,7 +9930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>129</v>
       </c>
@@ -9830,7 +9953,9 @@
         <v>24</v>
       </c>
       <c r="H81" s="24"/>
-      <c r="I81" s="3"/>
+      <c r="I81" s="3">
+        <v>9999</v>
+      </c>
       <c r="J81" s="3">
         <v>24</v>
       </c>
@@ -9859,7 +9984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>129</v>
       </c>
@@ -9882,7 +10007,9 @@
         <v>24</v>
       </c>
       <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
+      <c r="I82" s="3">
+        <v>9999</v>
+      </c>
       <c r="J82" s="3">
         <v>24</v>
       </c>
@@ -9911,7 +10038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>129</v>
       </c>
@@ -9934,7 +10061,9 @@
         <v>24</v>
       </c>
       <c r="H83" s="33"/>
-      <c r="I83" s="3"/>
+      <c r="I83" s="3">
+        <v>9999</v>
+      </c>
       <c r="J83" s="3">
         <v>24</v>
       </c>
@@ -9963,7 +10092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>129</v>
       </c>
@@ -9986,7 +10115,9 @@
         <v>24</v>
       </c>
       <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
+      <c r="I84" s="3">
+        <v>9999</v>
+      </c>
       <c r="J84" s="3">
         <v>24</v>
       </c>
@@ -10015,7 +10146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>129</v>
       </c>
@@ -10038,7 +10169,9 @@
         <v>8</v>
       </c>
       <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
+      <c r="I85" s="3">
+        <v>9999</v>
+      </c>
       <c r="J85" s="3">
         <v>24</v>
       </c>
@@ -10067,7 +10200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>129</v>
       </c>
@@ -10090,7 +10223,7 @@
         <v>24</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I86" s="3">
         <v>4</v>
@@ -10123,7 +10256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>129</v>
       </c>
@@ -10146,7 +10279,9 @@
         <v>24</v>
       </c>
       <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
+      <c r="I87" s="3">
+        <v>9999</v>
+      </c>
       <c r="J87" s="3">
         <v>24</v>
       </c>
@@ -10175,7 +10310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>129</v>
       </c>
@@ -10198,7 +10333,9 @@
         <v>24</v>
       </c>
       <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
+      <c r="I88" s="3">
+        <v>9999</v>
+      </c>
       <c r="J88" s="3">
         <v>24</v>
       </c>
@@ -10227,7 +10364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>129</v>
       </c>
@@ -10250,7 +10387,9 @@
         <v>24</v>
       </c>
       <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
+      <c r="I89" s="3">
+        <v>9999</v>
+      </c>
       <c r="J89" s="3">
         <v>24</v>
       </c>
@@ -10279,7 +10418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>129</v>
       </c>
@@ -10302,7 +10441,9 @@
         <v>24</v>
       </c>
       <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
+      <c r="I90" s="3">
+        <v>9999</v>
+      </c>
       <c r="J90" s="3">
         <v>24</v>
       </c>
@@ -10331,7 +10472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>129</v>
       </c>
@@ -10354,7 +10495,9 @@
         <v>24</v>
       </c>
       <c r="H91" s="33"/>
-      <c r="I91" s="3"/>
+      <c r="I91" s="3">
+        <v>9999</v>
+      </c>
       <c r="J91" s="3">
         <v>24</v>
       </c>
@@ -10383,7 +10526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>129</v>
       </c>
@@ -10406,7 +10549,9 @@
         <v>24</v>
       </c>
       <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
+      <c r="I92" s="3">
+        <v>9999</v>
+      </c>
       <c r="J92" s="3">
         <v>24</v>
       </c>
@@ -10435,7 +10580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>129</v>
       </c>
@@ -10458,7 +10603,9 @@
         <v>24</v>
       </c>
       <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
+      <c r="I93" s="3">
+        <v>9999</v>
+      </c>
       <c r="J93" s="3">
         <v>24</v>
       </c>
@@ -10487,7 +10634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>129</v>
       </c>
@@ -10510,7 +10657,9 @@
         <v>8</v>
       </c>
       <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
+      <c r="I94" s="3">
+        <v>9999</v>
+      </c>
       <c r="J94" s="3">
         <v>24</v>
       </c>
@@ -10539,7 +10688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>129</v>
       </c>
@@ -10562,7 +10711,7 @@
         <v>24</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I95" s="3">
         <v>4</v>
@@ -10595,7 +10744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>129</v>
       </c>
@@ -10618,7 +10767,9 @@
         <v>24</v>
       </c>
       <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
+      <c r="I96" s="3">
+        <v>9999</v>
+      </c>
       <c r="J96" s="3">
         <v>24</v>
       </c>
@@ -10647,7 +10798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>129</v>
       </c>
@@ -10670,7 +10821,9 @@
         <v>24</v>
       </c>
       <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
+      <c r="I97" s="3">
+        <v>9999</v>
+      </c>
       <c r="J97" s="3">
         <v>24</v>
       </c>
@@ -10699,7 +10852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>129</v>
       </c>
@@ -10722,7 +10875,9 @@
         <v>24</v>
       </c>
       <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
+      <c r="I98" s="3">
+        <v>9999</v>
+      </c>
       <c r="J98" s="3">
         <v>24</v>
       </c>
@@ -10751,7 +10906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>48</v>
       </c>
@@ -10774,7 +10929,7 @@
         <v>24</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I99" s="3">
         <v>3</v>
@@ -10807,7 +10962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>48</v>
       </c>
@@ -10830,7 +10985,9 @@
         <v>24</v>
       </c>
       <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
+      <c r="I100" s="3">
+        <v>9999</v>
+      </c>
       <c r="J100" s="3">
         <v>24</v>
       </c>
@@ -10859,7 +11016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>48</v>
       </c>
@@ -10882,7 +11039,9 @@
         <v>24</v>
       </c>
       <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
+      <c r="I101" s="3">
+        <v>9999</v>
+      </c>
       <c r="J101" s="3">
         <v>24</v>
       </c>
@@ -10911,7 +11070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>48</v>
       </c>
@@ -10934,7 +11093,7 @@
         <v>24</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I102" s="3">
         <v>6</v>
@@ -10967,7 +11126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>48</v>
       </c>
@@ -10990,7 +11149,9 @@
         <v>24</v>
       </c>
       <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
+      <c r="I103" s="3">
+        <v>9999</v>
+      </c>
       <c r="J103" s="3">
         <v>24</v>
       </c>
@@ -11019,7 +11180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>48</v>
       </c>
@@ -11042,7 +11203,9 @@
         <v>24</v>
       </c>
       <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
+      <c r="I104" s="3">
+        <v>9999</v>
+      </c>
       <c r="J104" s="3">
         <v>24</v>
       </c>
@@ -11071,7 +11234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>48</v>
       </c>
@@ -11094,7 +11257,7 @@
         <v>24</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I105" s="3">
         <v>2</v>
@@ -11127,7 +11290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>48</v>
       </c>
@@ -11150,7 +11313,9 @@
         <v>24</v>
       </c>
       <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
+      <c r="I106" s="3">
+        <v>9999</v>
+      </c>
       <c r="J106" s="3">
         <v>24</v>
       </c>
@@ -11179,7 +11344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>48</v>
       </c>
@@ -11202,7 +11367,7 @@
         <v>24</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I107" s="3">
         <v>2</v>
@@ -11235,7 +11400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>48</v>
       </c>
@@ -11258,7 +11423,9 @@
         <v>24</v>
       </c>
       <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
+      <c r="I108" s="3">
+        <v>9999</v>
+      </c>
       <c r="J108" s="3">
         <v>24</v>
       </c>
@@ -11287,7 +11454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>48</v>
       </c>
@@ -11310,7 +11477,9 @@
         <v>24</v>
       </c>
       <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
+      <c r="I109" s="3">
+        <v>9999</v>
+      </c>
       <c r="J109" s="3">
         <v>24</v>
       </c>
@@ -11339,7 +11508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>49</v>
       </c>
@@ -11362,7 +11531,7 @@
         <v>24</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I110" s="3">
         <v>4</v>
@@ -11395,7 +11564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>49</v>
       </c>
@@ -11418,7 +11587,9 @@
         <v>20</v>
       </c>
       <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
+      <c r="I111" s="3">
+        <v>9999</v>
+      </c>
       <c r="J111" s="3">
         <v>24</v>
       </c>
@@ -11447,7 +11618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>49</v>
       </c>
@@ -11470,7 +11641,9 @@
         <v>24</v>
       </c>
       <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
+      <c r="I112" s="3">
+        <v>9999</v>
+      </c>
       <c r="J112" s="3">
         <v>24</v>
       </c>
@@ -11499,7 +11672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>49</v>
       </c>
@@ -11522,7 +11695,7 @@
         <v>24</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I113" s="3">
         <v>6</v>
@@ -11555,7 +11728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>49</v>
       </c>
@@ -11578,7 +11751,7 @@
         <v>24</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I114" s="3">
         <v>4</v>
@@ -11611,7 +11784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>49</v>
       </c>
@@ -11634,7 +11807,9 @@
         <v>24</v>
       </c>
       <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
+      <c r="I115" s="3">
+        <v>9999</v>
+      </c>
       <c r="J115" s="3">
         <v>24</v>
       </c>
@@ -11663,7 +11838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>49</v>
       </c>
@@ -11686,7 +11861,9 @@
         <v>20</v>
       </c>
       <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
+      <c r="I116" s="3">
+        <v>9999</v>
+      </c>
       <c r="J116" s="3">
         <v>24</v>
       </c>
@@ -11715,7 +11892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>36</v>
       </c>
@@ -11738,7 +11915,9 @@
         <v>18</v>
       </c>
       <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
+      <c r="I117" s="3">
+        <v>9999</v>
+      </c>
       <c r="J117" s="3">
         <v>24</v>
       </c>
@@ -11767,7 +11946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>130</v>
       </c>
@@ -11790,7 +11969,9 @@
         <v>18</v>
       </c>
       <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
+      <c r="I118" s="3">
+        <v>9999</v>
+      </c>
       <c r="J118" s="3">
         <v>24</v>
       </c>
@@ -11819,7 +12000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>253</v>
       </c>
@@ -11842,7 +12023,9 @@
         <v>24</v>
       </c>
       <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
+      <c r="I119" s="3">
+        <v>9999</v>
+      </c>
       <c r="J119" s="3">
         <v>24</v>
       </c>
@@ -11871,7 +12054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>248</v>
       </c>
@@ -11894,7 +12077,9 @@
         <v>20</v>
       </c>
       <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
+      <c r="I120" s="3">
+        <v>9999</v>
+      </c>
       <c r="J120" s="3">
         <v>12</v>
       </c>
@@ -11923,7 +12108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
         <v>248</v>
       </c>
@@ -11946,7 +12131,9 @@
         <v>20</v>
       </c>
       <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
+      <c r="I121" s="3">
+        <v>9999</v>
+      </c>
       <c r="J121" s="13">
         <v>24</v>
       </c>
@@ -11993,11 +12180,11 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -12297,7 +12484,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>161</v>
       </c>
@@ -12308,7 +12495,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>87</v>
       </c>
@@ -12319,7 +12506,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>162</v>
       </c>
@@ -12330,7 +12517,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>201</v>
       </c>
@@ -12341,7 +12528,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>163</v>
       </c>
@@ -12352,7 +12539,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>203</v>
       </c>
@@ -12363,7 +12550,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>164</v>
       </c>
@@ -12374,7 +12561,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>165</v>
       </c>
@@ -12385,7 +12572,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>204</v>
       </c>
@@ -12396,7 +12583,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>166</v>
       </c>
@@ -12407,7 +12594,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>167</v>
       </c>
@@ -12418,7 +12605,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>167</v>
       </c>
@@ -12429,7 +12616,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>208</v>
       </c>
@@ -12440,7 +12627,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>205</v>
       </c>
@@ -12451,7 +12638,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>93</v>
       </c>
@@ -12462,7 +12649,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>168</v>
       </c>
@@ -12473,7 +12660,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>169</v>
       </c>
@@ -12484,7 +12671,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>170</v>
       </c>
@@ -12495,7 +12682,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>211</v>
       </c>
@@ -12506,7 +12693,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>212</v>
       </c>
@@ -12517,7 +12704,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>171</v>
       </c>
@@ -12528,7 +12715,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>172</v>
       </c>
@@ -12539,7 +12726,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>173</v>
       </c>
@@ -12550,7 +12737,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>174</v>
       </c>
@@ -12561,7 +12748,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>175</v>
       </c>
@@ -12572,7 +12759,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>176</v>
       </c>
@@ -12583,7 +12770,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>209</v>
       </c>
@@ -12594,7 +12781,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>177</v>
       </c>
@@ -12605,7 +12792,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>178</v>
       </c>
@@ -12616,7 +12803,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>179</v>
       </c>
@@ -12627,7 +12814,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>210</v>
       </c>
@@ -12638,7 +12825,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>180</v>
       </c>
@@ -12649,7 +12836,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>181</v>
       </c>
@@ -12660,7 +12847,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>182</v>
       </c>
@@ -12671,7 +12858,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
         <v>183</v>
       </c>
@@ -12682,7 +12869,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>184</v>
       </c>
@@ -12693,7 +12880,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>185</v>
       </c>
@@ -12704,7 +12891,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>186</v>
       </c>
@@ -12715,7 +12902,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
         <v>206</v>
       </c>
@@ -12726,7 +12913,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>213</v>
       </c>
@@ -12737,7 +12924,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
         <v>214</v>
       </c>
@@ -12748,7 +12935,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
         <v>187</v>
       </c>
@@ -12759,7 +12946,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
         <v>215</v>
       </c>
@@ -12770,7 +12957,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
         <v>220</v>
       </c>
@@ -12781,7 +12968,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
         <v>107</v>
       </c>
@@ -12792,7 +12979,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>188</v>
       </c>
@@ -12803,7 +12990,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
         <v>189</v>
       </c>
@@ -12814,7 +13001,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
         <v>190</v>
       </c>
@@ -12825,7 +13012,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
         <v>216</v>
       </c>
@@ -12836,7 +13023,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>112</v>
       </c>
@@ -12847,7 +13034,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>217</v>
       </c>
@@ -12858,7 +13045,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
         <v>191</v>
       </c>
@@ -12869,7 +13056,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
         <v>192</v>
       </c>
@@ -12880,7 +13067,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
         <v>193</v>
       </c>
@@ -12891,7 +13078,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
         <v>218</v>
       </c>
@@ -12902,7 +13089,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
         <v>117</v>
       </c>
@@ -12913,7 +13100,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
         <v>194</v>
       </c>
@@ -12924,7 +13111,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
         <v>195</v>
       </c>
@@ -12935,7 +13122,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
         <v>196</v>
       </c>
@@ -12946,7 +13133,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>197</v>
       </c>
@@ -12957,7 +13144,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
         <v>219</v>
       </c>
@@ -12968,7 +13155,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
         <v>198</v>
       </c>
@@ -12979,7 +13166,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
         <v>123</v>
       </c>
@@ -13002,17 +13189,17 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13275,10 +13462,10 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -13364,9 +13551,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -13380,7 +13567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
@@ -13391,7 +13578,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
@@ -13402,7 +13589,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
@@ -13435,7 +13622,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>242</v>
       </c>
